--- a/biology/Zoologie/Bothrochilus_boa/Bothrochilus_boa.xlsx
+++ b/biology/Zoologie/Bothrochilus_boa/Bothrochilus_boa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrochilus boa est une espèce de serpents de la famille des Pythonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrochilus boa est une espèce de serpents de la famille des Pythonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Elle se rencontre :
 dans l'archipel Bismarck sur les îles d'Umboi, de Nouvelle-Bretagne, de Gasmata, de Nouvelle-Irlande, de Nissan, de Nouvelle-Hanovre, dans les îles du Duc-d'York, dans les îles Tabar et
 dans les îles Salomon sur l'île de Bougainville.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent constricteur atteint environ 150 cm à 180 cm. Il est noir et orange en bandes alternées chez les juvéniles, puis les parties orange s'atténuent avec le temps et l'animal peut devenir quasiment intégralement noir.
 Il vit dans les forêts pluvieuses et s'aventure également dans les zones cultivées. Ce sont des reptiles nocturnes qui chassent de petits rongeurs et parfois de petits lézards (chez les juvéniles).
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schlegel, 1837 : Essai sur la physionomie des serpens, La Haye, J. Kips, J. HZ. et W. P. van Stockum, vol. 1 (texte intégral) et vol. 2 (texte intégral).</t>
         </is>
